--- a/协议/串行总线协议.xlsx
+++ b/协议/串行总线协议.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C30C5E-66ED-4024-B47F-29BBB8772892}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F432D9FA-901F-41A1-A508-84FE08210E4D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="发送协议" sheetId="1" r:id="rId1"/>
-    <sheet name="接收协议" sheetId="2" r:id="rId2"/>
+    <sheet name="车身状态反馈" sheetId="2" r:id="rId2"/>
+    <sheet name="车速反馈" sheetId="4" r:id="rId3"/>
+    <sheet name="应答信号" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="118">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>累加和：0-6字节累加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实际转向角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,8 +326,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应答信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累加和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际转向角速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转向扭矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte2</t>
+  </si>
+  <si>
+    <t>byte3</t>
+  </si>
+  <si>
+    <t>Uint16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,500]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-22.78,22.78]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>°/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>保留</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车身速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左前轮速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右前轮速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左后轮速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右后轮速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,360]</t>
+  </si>
+  <si>
+    <t>[0,360]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>km/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累加和：0-14字节累加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左前脉冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右前脉冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左后脉冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右后脉冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,255]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,256]</t>
+  </si>
+  <si>
+    <t>[0,257]</t>
+  </si>
+  <si>
+    <t>[0,258]</t>
   </si>
 </sst>
 </file>
@@ -386,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -447,12 +599,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -460,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -493,6 +673,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,13 +715,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -807,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:K6"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -926,140 +1140,136 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="16">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N6" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" ht="80.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="L7" s="22"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" ht="80.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N8" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1067,7 +1277,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1079,50 +1289,50 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
+      <c r="B10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="22" t="s">
+        <v>8</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1132,19 +1342,23 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="16"/>
+      <c r="L11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>46</v>
-      </c>
+      <c r="B12" s="22"/>
       <c r="C12" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1154,23 +1368,19 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="14">
         <v>10</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="C13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1180,19 +1390,23 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="L13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="14">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>7</v>
-      </c>
+      <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1202,23 +1416,19 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="14">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="23" t="s">
+        <v>7</v>
+      </c>
       <c r="C15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1228,17 +1438,23 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
+      <c r="L15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="14">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1248,17 +1464,17 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="14">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1268,19 +1484,17 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="16"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="14">
         <v>15</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="B18" s="23"/>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1290,23 +1504,19 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="14">
         <v>16</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1316,17 +1526,23 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
+      <c r="L19" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="14">
         <v>17</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1336,17 +1552,17 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="14">
         <v>18</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1356,61 +1572,141 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="16"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="14">
         <v>19</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>20</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>21</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>23</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="14" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="3" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
+      <c r="M26" s="14"/>
+      <c r="N26" s="14" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1420,333 +1716,1460 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485B570D-AF19-4CD7-ADE4-FC7A998D53D9}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="12" max="14" width="8.6640625" style="2"/>
+    <col min="4" max="4" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="12.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="F1" s="13" t="s">
         <v>67</v>
       </c>
+      <c r="G1" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="13">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="D2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="D3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="F3" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="D4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="12">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="F5" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
-        <v>3</v>
-      </c>
-      <c r="B5" s="22" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="2" t="s">
+      <c r="C6" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="H6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="J6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="L6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="M6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="N6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="20" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>9</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>10</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>12</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>14</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>15</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="F18" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G18" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
+  <mergeCells count="20">
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E11:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463BA18B-2D3A-456D-9F28-7C418F14B21B}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="16">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>22</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="F6:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884CEF67-6D6F-4CAC-BA51-91C2DFA515AF}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/协议/串行总线协议.xlsx
+++ b/协议/串行总线协议.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F432D9FA-901F-41A1-A508-84FE08210E4D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3510DB-5EB7-42D6-87EA-C2AB709C7852}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="发送协议" sheetId="1" r:id="rId1"/>
-    <sheet name="车身状态反馈" sheetId="2" r:id="rId2"/>
-    <sheet name="车速反馈" sheetId="4" r:id="rId3"/>
-    <sheet name="应答信号" sheetId="3" r:id="rId4"/>
+    <sheet name="控制透传协议" sheetId="1" r:id="rId1"/>
+    <sheet name="PID调试帧" sheetId="5" r:id="rId2"/>
+    <sheet name="速度控制帧" sheetId="6" r:id="rId3"/>
+    <sheet name="车身状态反馈" sheetId="2" r:id="rId4"/>
+    <sheet name="车速反馈" sheetId="4" r:id="rId5"/>
+    <sheet name="应答信号" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="127">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x3E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应答信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,6 +480,46 @@
   </si>
   <si>
     <t>[0,258]</t>
+  </si>
+  <si>
+    <t>0x3f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由发送帧ID决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉冲方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -640,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,6 +729,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,9 +758,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -715,14 +766,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -736,9 +783,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1023,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1032,10 +1076,9 @@
     <col min="1" max="1" width="8.6640625" style="1"/>
     <col min="2" max="2" width="10.9140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.4140625" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="2"/>
-    <col min="13" max="13" width="15.4140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="2"/>
+    <col min="4" max="4" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="15.4140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1048,23 +1091,23 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
@@ -1076,23 +1119,23 @@
       <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -1104,23 +1147,23 @@
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -1132,17 +1175,17 @@
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
@@ -1154,97 +1197,97 @@
       <c r="C5" s="16">
         <v>19</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="H7" s="11">
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" ht="80.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -1254,23 +1297,23 @@
         <v>5</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -1280,23 +1323,23 @@
         <v>6</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -1306,295 +1349,295 @@
         <v>75</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>10</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="29" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>11</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>12</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>13</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>14</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>15</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="22"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>16</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>17</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>18</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>19</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="22"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
@@ -1604,17 +1647,17 @@
         <v>75</v>
       </c>
       <c r="C23" s="16"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="14"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
@@ -1624,17 +1667,17 @@
         <v>75</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="14"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
@@ -1644,17 +1687,17 @@
         <v>75</v>
       </c>
       <c r="C25" s="16"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="14"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
@@ -1664,49 +1707,49 @@
         <v>11</v>
       </c>
       <c r="C26" s="16"/>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N11:N12"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1715,11 +1758,796 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF57E098-EEA1-4ED0-9239-EFEB3D560FCC}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F25" sqref="B18:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="18">
+        <v>19</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>8</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>15</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>17</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>19</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>20</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>21</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <v>22</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>23</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C713953-EBEF-49F4-BCA0-67E3F071A5B7}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="18">
+        <v>11</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485B570D-AF19-4CD7-ADE4-FC7A998D53D9}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:N18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1749,16 +2577,16 @@
       <c r="F1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
+      <c r="G1" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
@@ -1771,7 +2599,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>70</v>
@@ -1799,7 +2627,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>70</v>
@@ -1827,7 +2655,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -1851,7 +2679,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>70</v>
@@ -1869,22 +2697,22 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="23" t="s">
         <v>70</v>
       </c>
       <c r="G6" s="13" t="s">
@@ -1913,12 +2741,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="13">
         <v>0</v>
       </c>
@@ -1945,23 +2773,23 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="14">
         <v>0</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -1976,19 +2804,19 @@
       <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="23" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="4"/>
@@ -2001,16 +2829,16 @@
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="19">
         <v>7</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2021,23 +2849,23 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="19">
         <v>8</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>84</v>
+      <c r="B11" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>93</v>
+      <c r="D11" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2049,16 +2877,16 @@
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="19">
         <v>9</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2069,23 +2897,23 @@
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="19">
         <v>10</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>85</v>
+      <c r="B13" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2097,16 +2925,16 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="19">
         <v>11</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="21"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2117,16 +2945,16 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15" s="19">
         <v>12</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="21"/>
+        <v>85</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2137,16 +2965,16 @@
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="19">
         <v>13</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2157,23 +2985,23 @@
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="19">
         <v>14</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="14">
         <v>0</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2185,7 +3013,7 @@
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="19">
         <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2201,16 +3029,16 @@
       <c r="F18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
+      <c r="G18" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
@@ -2299,13 +3127,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="G18:N18"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
@@ -2319,6 +3140,13 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2326,12 +3154,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463BA18B-2D3A-456D-9F28-7C418F14B21B}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:G21"/>
+    <sheetView topLeftCell="A20" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G25" sqref="A23:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2350,7 +3178,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>40</v>
@@ -2358,16 +3186,16 @@
       <c r="G1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
+      <c r="H1" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
@@ -2380,7 +3208,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
@@ -2409,7 +3237,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14" t="s">
@@ -2435,10 +3263,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -2463,7 +3291,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14" t="s">
@@ -2485,23 +3313,23 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>99</v>
+      <c r="B6" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="D6" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -2516,14 +3344,14 @@
       <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -2537,14 +3365,14 @@
       <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+        <v>85</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -2558,14 +3386,14 @@
       <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -2579,23 +3407,23 @@
       <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>100</v>
+      <c r="B10" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="24">
         <v>0.1</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -2610,14 +3438,14 @@
       <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="19"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2631,23 +3459,23 @@
       <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>101</v>
+      <c r="B12" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="24">
         <v>0.1</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>106</v>
+      <c r="F12" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2662,14 +3490,14 @@
       <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="19"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -2683,23 +3511,23 @@
       <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>102</v>
+      <c r="B14" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="24">
         <v>0.1</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>106</v>
+      <c r="F14" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2714,14 +3542,14 @@
       <c r="A15" s="17">
         <v>13</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="19"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -2735,23 +3563,23 @@
       <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>103</v>
+      <c r="B16" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="24">
         <v>0.1</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>106</v>
+      <c r="F16" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2766,14 +3594,14 @@
       <c r="A17" s="17">
         <v>15</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="19"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -2788,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>36</v>
@@ -2800,7 +3628,7 @@
         <v>31</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="15">
         <v>1</v>
@@ -2819,7 +3647,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>36</v>
@@ -2831,7 +3659,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G19" s="15">
         <v>1</v>
@@ -2850,7 +3678,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>36</v>
@@ -2862,7 +3690,7 @@
         <v>31</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="15">
         <v>1</v>
@@ -2881,7 +3709,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>36</v>
@@ -2893,7 +3721,7 @@
         <v>31</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" s="15">
         <v>1</v>
@@ -2912,10 +3740,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>36</v>
@@ -2923,11 +3751,11 @@
       <c r="E22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>95</v>
+      <c r="F22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -2943,7 +3771,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="14">
         <v>0</v>
@@ -2954,11 +3782,11 @@
       <c r="E23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="34" t="s">
-        <v>95</v>
+      <c r="F23" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -2974,7 +3802,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="14">
         <v>0</v>
@@ -2985,11 +3813,11 @@
       <c r="E24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>95</v>
+      <c r="F24" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -3020,33 +3848,23 @@
       <c r="G25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
+      <c r="H25" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="F6:F9"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H25:O25"/>
     <mergeCell ref="B10:B11"/>
@@ -3056,25 +3874,38 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884CEF67-6D6F-4CAC-BA51-91C2DFA515AF}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="C1" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.4140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
@@ -3117,7 +3948,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3132,20 +3963,20 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
@@ -3155,15 +3986,15 @@
         <v>11</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+        <v>82</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
